--- a/notebooks/resumen_centralidades.xlsx
+++ b/notebooks/resumen_centralidades.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -471,23 +471,23 @@
         <v>0.06016113516113517</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4490398902966275</v>
+        <v>0.4490398902966276</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Nueva Zelanda</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0.3636363636363636</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4008297258297259</v>
+        <v>0.4008297258297258</v>
       </c>
       <c r="E3" t="n">
         <v>0.3731267883194382</v>
@@ -495,18 +495,18 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0.2727272727272727</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05197811447811448</v>
+        <v>0.05197811447811446</v>
       </c>
       <c r="E4" t="n">
         <v>0.2744893093866953</v>
@@ -514,21 +514,21 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Islandia</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0.2727272727272727</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04908459595959595</v>
+        <v>0.1539081289081289</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2922721271736827</v>
+        <v>0.2579700312329372</v>
       </c>
     </row>
     <row r="6">
@@ -537,22 +537,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Finlandia</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0.2727272727272727</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1539081289081289</v>
+        <v>0.04908459595959595</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2579700312329373</v>
+        <v>0.2922721271736826</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -563,7 +563,7 @@
         <v>0.2424242424242424</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04731691919191919</v>
+        <v>0.04731691919191917</v>
       </c>
       <c r="E7" t="n">
         <v>0.2509575829324112</v>
@@ -571,11 +571,11 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>United States</t>
+          <t>Estados Unidos</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -585,16 +585,16 @@
         <v>0.03330627705627706</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2530895159127858</v>
+        <v>0.2530895159127857</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -609,37 +609,37 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>0.2121212121212121</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002840909090909091</v>
+        <v>0.1572300384800385</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2745514789595498</v>
+        <v>0.186294592203274</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Letonia</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>0.2121212121212121</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3022997835497835</v>
+        <v>0.3022997835497836</v>
       </c>
       <c r="E11" t="n">
         <v>0.05894624563683745</v>
@@ -647,49 +647,49 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>0.2121212121212121</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1572300384800385</v>
+        <v>0.002840909090909091</v>
       </c>
       <c r="E12" t="n">
-        <v>0.186294592203274</v>
+        <v>0.2745514789595498</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>0.1515151515151515</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.2196969696969697</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1810535619347918</v>
+        <v>0.005296547984511859</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Rumania</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -699,35 +699,35 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1589067584354937</v>
+        <v>0.1810535619347917</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Dinamarca</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>0.1515151515151515</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2196969696969697</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.005296547984511858</v>
+        <v>0.1589067584354937</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Grecia</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -742,11 +742,11 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>República Checa</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -756,73 +756,73 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00089949555431214</v>
+        <v>0.0009306931170808886</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>0.1212121212121212</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3535849567099566</v>
+        <v>0.000946969696969697</v>
       </c>
       <c r="E18" t="n">
-        <v>0.04384533914259207</v>
+        <v>0.1371259397610282</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>0.1212121212121212</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1119047619047619</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01005290739814582</v>
+        <v>0.0008994955543121397</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Reino Unido</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>0.1212121212121212</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0628517316017316</v>
+        <v>0.3535849567099567</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00226217809644359</v>
+        <v>0.04384533914259207</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Eslovaquia</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -832,35 +832,35 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0009306931170808887</v>
+        <v>0.0008994955543121397</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Suecia</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>0.1212121212121212</v>
       </c>
       <c r="D22" t="n">
-        <v>0.000946969696969697</v>
+        <v>0.1119047619047619</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1371259397610282</v>
+        <v>0.01005290739814582</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Holanda</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -870,26 +870,26 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0008994955543121399</v>
+        <v>0.0009306931170808886</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Canadá</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>0.1212121212121212</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.0628517316017316</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0009306931170808887</v>
+        <v>0.00226217809644359</v>
       </c>
     </row>
     <row r="25">
@@ -898,26 +898,26 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>0.09090909090909091</v>
       </c>
       <c r="D25" t="n">
-        <v>0.08449675324675324</v>
+        <v>0.08449675324675325</v>
       </c>
       <c r="E25" t="n">
-        <v>0.007027735638371881</v>
+        <v>0.00702773563837188</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Corea del Sur</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -927,12 +927,12 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.05608888395802087</v>
+        <v>0.05608888395802086</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -946,16 +946,16 @@
         <v>0.06060606060606061</v>
       </c>
       <c r="E27" t="n">
-        <v>0.007488780666140104</v>
+        <v>0.007488780666140103</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Sudáfrica</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -965,54 +965,54 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.001372737811098444</v>
+        <v>0.001372737811098443</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>0.06060606060606061</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>0.03729707792207793</v>
       </c>
       <c r="E29" t="n">
-        <v>0.001380724982305694</v>
+        <v>0.04270986588457941</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Japón</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>0.06060606060606061</v>
       </c>
       <c r="D30" t="n">
-        <v>0.03729707792207792</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.04270986588457942</v>
+        <v>0.00740506385449525</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Noruega</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.007405063854495251</v>
+        <v>0.08064562370488097</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1041,12 +1041,12 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.08064562370488099</v>
+        <v>0.001380724982305694</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1065,11 +1065,11 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Panamá</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1079,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.006570321857069723</v>
+        <v>0.004887175143189627</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Chipre</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.004887175143189625</v>
+        <v>0.006570321857069722</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/resumen_centralidades.xlsx
+++ b/notebooks/resumen_centralidades.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -465,132 +465,132 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.4242424242424243</v>
+        <v>0.4615384615384615</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06016113516113517</v>
+        <v>0.0380954234699174</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4490398902966276</v>
+        <v>0.3672687299769622</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nueva Zelanda</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4008297258297258</v>
+        <v>0.0215309600431058</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3731267883194382</v>
+        <v>0.3167818251386662</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Armenia</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05197811447811446</v>
+        <v>0.02063127493289437</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2744893093866953</v>
+        <v>0.3300122223970592</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Islandia</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1539081289081289</v>
+        <v>0.0215309600431058</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2579700312329372</v>
+        <v>0.3167818251386662</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Finlandia</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04908459595959595</v>
+        <v>0.08733909477836604</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2922721271736826</v>
+        <v>0.2732600836170529</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Armenia</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.2424242424242424</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04731691919191917</v>
+        <v>0.03575543889309071</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2509575829324112</v>
+        <v>0.2730505207251224</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Estados Unidos</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2121212121212121</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03330627705627706</v>
+        <v>0.02667727009832272</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2530895159127857</v>
+        <v>0.2727425941069258</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -598,507 +598,621 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.2121212121212121</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002840909090909091</v>
+        <v>0.00336516834492543</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2745514789595498</v>
+        <v>0.2700663447662534</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.2121212121212121</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1572300384800385</v>
+        <v>0.1271707992861839</v>
       </c>
       <c r="E10" t="n">
-        <v>0.186294592203274</v>
+        <v>0.2028584306506551</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Letonia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2121212121212121</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3022997835497836</v>
+        <v>0.1078755814585774</v>
       </c>
       <c r="E11" t="n">
-        <v>0.05894624563683745</v>
+        <v>0.1949580127733226</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.2121212121212121</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002840909090909091</v>
+        <v>0.002555451745735146</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2745514789595498</v>
+        <v>0.2290099100431041</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2196969696969697</v>
+        <v>0.01969908746224535</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005296547984511859</v>
+        <v>0.153716170170826</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Rumania</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.001349527665317139</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1810535619347917</v>
+        <v>0.1504422543275648</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Dinamarca</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.001345511213932266</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1589067584354937</v>
+        <v>0.1459236406275047</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Grecia</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.0002249212775528565</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1589067584354937</v>
+        <v>0.1642648065072258</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>República Checa</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.05150697255960413</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0009306931170808886</v>
+        <v>0.1227468918677532</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="D18" t="n">
-        <v>0.000946969696969697</v>
+        <v>0.1232655109173328</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1371259397610282</v>
+        <v>0.002559394161543784</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.04588394062078272</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0008994955543121397</v>
+        <v>0.07196211821057001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Reino Unido</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3535849567099567</v>
+        <v>0.01214574898785425</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04384533914259207</v>
+        <v>4.887810133000361e-08</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Eslovaquia</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.2402695595003287</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0008994955543121397</v>
+        <v>0.03201312690281199</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Suecia</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1119047619047619</v>
+        <v>0.07376552821896951</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01005290739814582</v>
+        <v>0.002570002215916618</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Holanda</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0009306931170808886</v>
+        <v>0.07638933407589918</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Canadá</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0628517316017316</v>
+        <v>0.03036375455403795</v>
       </c>
       <c r="E24" t="n">
-        <v>0.00226217809644359</v>
+        <v>0.06047934162598264</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="D25" t="n">
-        <v>0.08449675324675325</v>
+        <v>0.005052077926571853</v>
       </c>
       <c r="E25" t="n">
-        <v>0.00702773563837188</v>
+        <v>0.000456150359312073</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Corea del Sur</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.04318488529014845</v>
       </c>
       <c r="E26" t="n">
-        <v>0.05608888395802086</v>
+        <v>0.0003890512275565027</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D27" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.08502024291497975</v>
       </c>
       <c r="E27" t="n">
-        <v>0.007488780666140103</v>
+        <v>0.002234523899942243</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sudáfrica</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.09130938786809234</v>
       </c>
       <c r="E28" t="n">
-        <v>0.001372737811098443</v>
+        <v>0.03254518171670829</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="D29" t="n">
-        <v>0.03729707792207793</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.04270986588457941</v>
+        <v>3.57112069067422e-08</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Japón</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.00740506385449525</v>
+        <v>0.02950159007770378</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Noruega</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.08064562370488097</v>
+        <v>3.126224015759619e-08</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.001380724982305694</v>
+        <v>0.0002091330024833514</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Bosnia-Herzegovina</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0008347419974255277</v>
+        <v>0.0003552791223444042</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Panamá</t>
+          <t>Bosnia-Herzegovina</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.004887175143189627</v>
+        <v>1.815965167642462e-08</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Chipre</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.006570321857069722</v>
+        <v>0.0001545040224673222</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.02564102564102564</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2.715062480259529e-05</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.02564102564102564</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.00848527855746488</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Moldova</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.02564102564102564</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.815965167642462e-08</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.02564102564102564</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0001545040224673222</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Cyprus</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.02564102564102564</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.004974626679759489</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.02564102564102564</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.815965167642462e-08</v>
       </c>
     </row>
   </sheetData>
